--- a/따릉이 이용량 데이터/따릉이 데이터 19~23.xlsx
+++ b/따릉이 이용량 데이터/따릉이 데이터 19~23.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="27531"/>
-  <workbookPr defaultThemeVersion="202300"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="24332"/>
+  <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/97ce27d4fc196741/바탕 화면/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\goott4\Desktop\BgTrafficPrj\따릉이 이용량 데이터\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{958ACECE-0BE1-4838-8322-4C77406CA5C5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{2472DC1E-A388-4168-9615-1352E9DDE137}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="28680" yWindow="0" windowWidth="29040" windowHeight="15840" xr2:uid="{216C0617-AA6C-4DCA-BE2B-4D893745FCF5}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{216C0617-AA6C-4DCA-BE2B-4D893745FCF5}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -27,8 +27,6 @@
         <xcalcf:feature name="microsoft.com:FV"/>
         <xcalcf:feature name="microsoft.com:CNMTM"/>
         <xcalcf:feature name="microsoft.com:LET_WF"/>
-        <xcalcf:feature name="microsoft.com:LAMBDA_WF"/>
-        <xcalcf:feature name="microsoft.com:ARRAYTEXT_WF"/>
       </xcalcf:calcFeatures>
     </ext>
   </extLst>
@@ -36,13 +34,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4" uniqueCount="4">
   <si>
     <t>대여일자</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
   <si>
     <t>대여건수</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>sdate</t>
+    <phoneticPr fontId="2" type="noConversion"/>
+  </si>
+  <si>
+    <t>susage</t>
     <phoneticPr fontId="2" type="noConversion"/>
   </si>
 </sst>
@@ -52,7 +58,7 @@
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <numFmts count="2">
     <numFmt numFmtId="41" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
-    <numFmt numFmtId="177" formatCode="_-* #,##0_-;\-* #,##0_-;_-* &quot;-&quot;_-;_-@_-"/>
+    <numFmt numFmtId="178" formatCode="yyyy/mm"/>
   </numFmts>
   <fonts count="3" x14ac:knownFonts="1">
     <font>
@@ -103,11 +109,11 @@
     <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
+    <xf numFmtId="41" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0">
       <alignment vertical="center"/>
     </xf>
   </cellStyleXfs>
-  <cellXfs count="12">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
       <alignment vertical="center"/>
     </xf>
@@ -120,7 +126,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0">
@@ -129,7 +135,7 @@
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="177" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
+    <xf numFmtId="41" fontId="0" fillId="0" borderId="0" xfId="2" applyFont="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="14" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyBorder="1" applyAlignment="1">
@@ -142,6 +148,12 @@
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="178" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="1" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1">
       <alignment vertical="center"/>
     </xf>
   </cellXfs>
@@ -480,490 +492,933 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{901F0E2E-F078-4921-B6D6-C0DC7BF9A182}">
-  <dimension ref="A1:B1736"/>
+  <dimension ref="A1:J1736"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A1709" workbookViewId="0">
-      <selection activeCell="E1724" sqref="E1724"/>
+    <sheetView tabSelected="1" topLeftCell="A39" workbookViewId="0">
+      <selection activeCell="K46" sqref="K46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="16.5" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="1" max="1" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="11.125" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="9.625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
       <c r="B1" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E1" t="s">
+        <v>2</v>
+      </c>
+      <c r="F1" t="s">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="2" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A2" s="1">
         <v>43556</v>
       </c>
       <c r="B2">
         <v>37660</v>
       </c>
-    </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E2" s="6">
+        <v>43556</v>
+      </c>
+      <c r="F2" s="13">
+        <f>AVERAGE(B2:B31)</f>
+        <v>48933.333333333336</v>
+      </c>
+      <c r="I2">
+        <v>2019</v>
+      </c>
+      <c r="J2" s="13">
+        <f>AVERAGE(F2:F10)</f>
+        <v>62797.102920940961</v>
+      </c>
+    </row>
+    <row r="3" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A3" s="1">
         <v>43557</v>
       </c>
       <c r="B3">
         <v>42029</v>
       </c>
-    </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E3" s="6">
+        <v>43586</v>
+      </c>
+      <c r="F3" s="13">
+        <f>AVERAGE(B32:B62)</f>
+        <v>72028.870967741939</v>
+      </c>
+      <c r="I3">
+        <v>2020</v>
+      </c>
+      <c r="J3" s="13">
+        <f>AVERAGE(F11:F22)</f>
+        <v>64736.382313681861</v>
+      </c>
+    </row>
+    <row r="4" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A4" s="1">
         <v>43558</v>
       </c>
       <c r="B4">
         <v>43257</v>
       </c>
-    </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E4" s="6">
+        <v>43617</v>
+      </c>
+      <c r="F4" s="13">
+        <f>AVERAGE(B63:B92)</f>
+        <v>76462.633333333331</v>
+      </c>
+      <c r="I4" s="5">
+        <v>2021</v>
+      </c>
+      <c r="J4" s="13">
+        <f>AVERAGE(F23:F34)</f>
+        <v>87686.968330773176</v>
+      </c>
+    </row>
+    <row r="5" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A5" s="1">
         <v>43559</v>
       </c>
       <c r="B5">
         <v>45681</v>
       </c>
-    </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E5" s="6">
+        <v>43647</v>
+      </c>
+      <c r="F5" s="13">
+        <f>AVERAGE(B93:B123)</f>
+        <v>69809.225806451606</v>
+      </c>
+      <c r="I5" s="5">
+        <v>2022</v>
+      </c>
+      <c r="J5" s="13">
+        <f>AVERAGE(F35:F46)</f>
+        <v>111980.99918074756</v>
+      </c>
+    </row>
+    <row r="6" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A6" s="1">
         <v>43560</v>
       </c>
       <c r="B6">
         <v>45643</v>
       </c>
-    </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E6" s="6">
+        <v>43678</v>
+      </c>
+      <c r="F6" s="13">
+        <f>AVERAGE(B124:B154)</f>
+        <v>67780.129032258061</v>
+      </c>
+      <c r="I6" s="5">
+        <v>2023</v>
+      </c>
+      <c r="J6" s="13">
+        <f>AVERAGE(F47:F58)</f>
+        <v>122879.05122247823</v>
+      </c>
+    </row>
+    <row r="7" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A7" s="1">
         <v>43561</v>
       </c>
       <c r="B7">
         <v>25902</v>
       </c>
-    </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E7" s="6">
+        <v>43709</v>
+      </c>
+      <c r="F7" s="13">
+        <f>AVERAGE(B155:B183)</f>
+        <v>71869.724137931029</v>
+      </c>
+    </row>
+    <row r="8" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A8" s="1">
         <v>43562</v>
       </c>
       <c r="B8">
         <v>55943</v>
       </c>
-    </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E8" s="6">
+        <v>43739</v>
+      </c>
+      <c r="F8" s="13">
+        <f>AVERAGE(B184:B214)</f>
+        <v>78593.580645161288</v>
+      </c>
+    </row>
+    <row r="9" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A9" s="1">
         <v>43563</v>
       </c>
       <c r="B9">
         <v>52643</v>
       </c>
-    </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E9" s="6">
+        <v>43770</v>
+      </c>
+      <c r="F9" s="13">
+        <f>AVERAGE(B215:B244)</f>
+        <v>51242.3</v>
+      </c>
+    </row>
+    <row r="10" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A10" s="1">
         <v>43564</v>
       </c>
       <c r="B10">
         <v>24734</v>
       </c>
-    </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E10" s="6">
+        <v>43800</v>
+      </c>
+      <c r="F10" s="13">
+        <f>AVERAGE(B245:B275)</f>
+        <v>28454.129032258064</v>
+      </c>
+    </row>
+    <row r="11" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A11" s="1">
         <v>43565</v>
       </c>
       <c r="B11">
         <v>26421</v>
       </c>
-    </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E11" s="6">
+        <v>43831</v>
+      </c>
+      <c r="F11" s="13">
+        <f>AVERAGE(B276:B306)</f>
+        <v>25618.129032258064</v>
+      </c>
+    </row>
+    <row r="12" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A12" s="1">
         <v>43566</v>
       </c>
       <c r="B12">
         <v>51013</v>
       </c>
-    </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E12" s="6">
+        <v>43862</v>
+      </c>
+      <c r="F12" s="13">
+        <f>AVERAGE(B307:B335)</f>
+        <v>26285.310344827587</v>
+      </c>
+    </row>
+    <row r="13" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A13" s="1">
         <v>43567</v>
       </c>
       <c r="B13">
         <v>55125</v>
       </c>
-    </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E13" s="6">
+        <v>43891</v>
+      </c>
+      <c r="F13" s="13">
+        <f>AVERAGE(B336:B366)</f>
+        <v>49468.870967741932</v>
+      </c>
+    </row>
+    <row r="14" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A14" s="1">
         <v>43568</v>
       </c>
       <c r="B14">
         <v>57020</v>
       </c>
-    </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E14" s="6">
+        <v>43922</v>
+      </c>
+      <c r="F14" s="13">
+        <f>AVERAGE(B367:B396)</f>
+        <v>71913</v>
+      </c>
+    </row>
+    <row r="15" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A15" s="1">
         <v>43569</v>
       </c>
       <c r="B15">
         <v>28467</v>
       </c>
-    </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E15" s="6">
+        <v>43952</v>
+      </c>
+      <c r="F15" s="13">
+        <f>AVERAGE(B397:B427)</f>
+        <v>80010.645161290318</v>
+      </c>
+    </row>
+    <row r="16" spans="1:10" x14ac:dyDescent="0.3">
       <c r="A16" s="1">
         <v>43570</v>
       </c>
       <c r="B16">
         <v>55422</v>
       </c>
-    </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E16" s="6">
+        <v>43983</v>
+      </c>
+      <c r="F16" s="13">
+        <f>AVERAGE(B428:B457)</f>
+        <v>92361.933333333334</v>
+      </c>
+    </row>
+    <row r="17" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A17" s="1">
         <v>43571</v>
       </c>
       <c r="B17">
         <v>60566</v>
       </c>
-    </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E17" s="6">
+        <v>44013</v>
+      </c>
+      <c r="F17" s="13">
+        <f>AVERAGE(B458:B488)</f>
+        <v>83306.806451612909</v>
+      </c>
+    </row>
+    <row r="18" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A18" s="1">
         <v>43572</v>
       </c>
       <c r="B18">
         <v>62522</v>
       </c>
-    </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E18" s="6">
+        <v>44044</v>
+      </c>
+      <c r="F18" s="13">
+        <f>AVERAGE(B489:B519)</f>
+        <v>55934.612903225803</v>
+      </c>
+    </row>
+    <row r="19" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A19" s="1">
         <v>43573</v>
       </c>
       <c r="B19">
         <v>50439</v>
       </c>
-    </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E19" s="6">
+        <v>44075</v>
+      </c>
+      <c r="F19" s="13">
+        <f>AVERAGE(B520:B549)</f>
+        <v>93733</v>
+      </c>
+    </row>
+    <row r="20" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A20" s="1">
         <v>43574</v>
       </c>
       <c r="B20">
         <v>60925</v>
       </c>
-    </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E20" s="6">
+        <v>44105</v>
+      </c>
+      <c r="F20" s="13">
+        <f>AVERAGE(B550:B580)</f>
+        <v>93278</v>
+      </c>
+    </row>
+    <row r="21" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A21" s="1">
         <v>43575</v>
       </c>
       <c r="B21">
         <v>51068</v>
       </c>
-    </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E21" s="6">
+        <v>44136</v>
+      </c>
+      <c r="F21" s="13">
+        <f>AVERAGE(B581:B610)</f>
+        <v>66335.666666666672</v>
+      </c>
+    </row>
+    <row r="22" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A22" s="1">
         <v>43576</v>
       </c>
       <c r="B22">
         <v>53339</v>
       </c>
-    </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E22" s="6">
+        <v>44166</v>
+      </c>
+      <c r="F22" s="13">
+        <f>AVERAGE(B611:B641)</f>
+        <v>38590.612903225803</v>
+      </c>
+    </row>
+    <row r="23" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A23" s="1">
         <v>43577</v>
       </c>
       <c r="B23">
         <v>63995</v>
       </c>
-    </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E23" s="6">
+        <v>44197</v>
+      </c>
+      <c r="F23" s="13">
+        <f>AVERAGE(B642:B672)</f>
+        <v>26194.225806451614</v>
+      </c>
+    </row>
+    <row r="24" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A24" s="1">
         <v>43578</v>
       </c>
       <c r="B24">
         <v>58811</v>
       </c>
-    </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E24" s="6">
+        <v>44228</v>
+      </c>
+      <c r="F24" s="13">
+        <f>AVERAGE(B673:B700)</f>
+        <v>44090.928571428572</v>
+      </c>
+    </row>
+    <row r="25" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A25" s="1">
         <v>43579</v>
       </c>
       <c r="B25">
         <v>55815</v>
       </c>
-    </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E25" s="6">
+        <v>44256</v>
+      </c>
+      <c r="F25" s="13">
+        <f>AVERAGE(B701:B731)</f>
+        <v>70458.967741935485</v>
+      </c>
+    </row>
+    <row r="26" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A26" s="1">
         <v>43580</v>
       </c>
       <c r="B26">
         <v>22471</v>
       </c>
-    </row>
-    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E26" s="6">
+        <v>44287</v>
+      </c>
+      <c r="F26" s="13">
+        <f>AVERAGE(B732:B761)</f>
+        <v>101441.26666666666</v>
+      </c>
+    </row>
+    <row r="27" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A27" s="1">
         <v>43581</v>
       </c>
       <c r="B27">
         <v>26484</v>
       </c>
-    </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E27" s="6">
+        <v>44317</v>
+      </c>
+      <c r="F27" s="13">
+        <f>AVERAGE(B762:B792)</f>
+        <v>95166.129032258061</v>
+      </c>
+    </row>
+    <row r="28" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A28" s="1">
         <v>43582</v>
       </c>
       <c r="B28">
         <v>65124</v>
       </c>
-    </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E28" s="6">
+        <v>44348</v>
+      </c>
+      <c r="F28" s="13">
+        <f>AVERAGE(B793:B822)</f>
+        <v>115346.9</v>
+      </c>
+    </row>
+    <row r="29" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A29" s="1">
         <v>43583</v>
       </c>
       <c r="B29">
         <v>56012</v>
       </c>
-    </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E29" s="6">
+        <v>44378</v>
+      </c>
+      <c r="F29" s="13">
+        <f>AVERAGE(B823:B853)</f>
+        <v>108951.80645161291</v>
+      </c>
+    </row>
+    <row r="30" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A30" s="1">
         <v>43584</v>
       </c>
       <c r="B30">
         <v>63256</v>
       </c>
-    </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E30" s="6">
+        <v>44409</v>
+      </c>
+      <c r="F30" s="13">
+        <f>AVERAGE(B854:B884)</f>
+        <v>104708.83870967742</v>
+      </c>
+    </row>
+    <row r="31" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A31" s="1">
         <v>43585</v>
       </c>
       <c r="B31">
         <v>70213</v>
       </c>
-    </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E31" s="6">
+        <v>44440</v>
+      </c>
+      <c r="F31" s="13">
+        <f>AVERAGE(B885:B914)</f>
+        <v>124555.23333333334</v>
+      </c>
+    </row>
+    <row r="32" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A32" s="1">
         <v>43586</v>
       </c>
       <c r="B32">
         <v>76439</v>
       </c>
-    </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E32" s="6">
+        <v>44470</v>
+      </c>
+      <c r="F32" s="13">
+        <f>AVERAGE(B915:B945)</f>
+        <v>111159</v>
+      </c>
+    </row>
+    <row r="33" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A33" s="1">
         <v>43587</v>
       </c>
       <c r="B33">
         <v>72430</v>
       </c>
-    </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E33" s="6">
+        <v>44501</v>
+      </c>
+      <c r="F33" s="13">
+        <f>AVERAGE(B946:B975)</f>
+        <v>91243.03333333334</v>
+      </c>
+    </row>
+    <row r="34" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A34" s="1">
         <v>43588</v>
       </c>
       <c r="B34">
         <v>73647</v>
       </c>
-    </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E34" s="6">
+        <v>44531</v>
+      </c>
+      <c r="F34" s="13">
+        <f>AVERAGE(B976:B1006)</f>
+        <v>58927.290322580644</v>
+      </c>
+    </row>
+    <row r="35" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A35" s="1">
         <v>43589</v>
       </c>
       <c r="B35">
         <v>66392</v>
       </c>
-    </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E35" s="6">
+        <v>44562</v>
+      </c>
+      <c r="F35" s="13">
+        <f>AVERAGE(B1007:B1037)</f>
+        <v>45802.129032258068</v>
+      </c>
+    </row>
+    <row r="36" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A36" s="1">
         <v>43590</v>
       </c>
       <c r="B36">
         <v>66911</v>
       </c>
-    </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E36" s="6">
+        <v>44593</v>
+      </c>
+      <c r="F36" s="13">
+        <f>AVERAGE(B1038:B1065)</f>
+        <v>48191.142857142855</v>
+      </c>
+    </row>
+    <row r="37" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A37" s="1">
         <v>43591</v>
       </c>
       <c r="B37">
         <v>74806</v>
       </c>
-    </row>
-    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E37" s="6">
+        <v>44621</v>
+      </c>
+      <c r="F37" s="13">
+        <f>AVERAGE(B1066:B1096)</f>
+        <v>78186</v>
+      </c>
+    </row>
+    <row r="38" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A38" s="1">
         <v>43592</v>
       </c>
       <c r="B38">
         <v>70506</v>
       </c>
-    </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E38" s="6">
+        <v>44652</v>
+      </c>
+      <c r="F38" s="13">
+        <f>AVERAGE(B1097:B1126)</f>
+        <v>133016.9</v>
+      </c>
+    </row>
+    <row r="39" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A39" s="1">
         <v>43593</v>
       </c>
       <c r="B39">
         <v>70426</v>
       </c>
-    </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E39" s="6">
+        <v>44682</v>
+      </c>
+      <c r="F39" s="13">
+        <f>AVERAGE(B1127:B1157)</f>
+        <v>160091.51612903227</v>
+      </c>
+    </row>
+    <row r="40" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A40" s="1">
         <v>43594</v>
       </c>
       <c r="B40">
         <v>71707</v>
       </c>
-    </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E40" s="6">
+        <v>44713</v>
+      </c>
+      <c r="F40" s="13">
+        <f>AVERAGE(B1158:B1187)</f>
+        <v>141889.73333333334</v>
+      </c>
+    </row>
+    <row r="41" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A41" s="1">
         <v>43595</v>
       </c>
       <c r="B41">
         <v>74960</v>
       </c>
-    </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E41" s="6">
+        <v>44743</v>
+      </c>
+      <c r="F41" s="13">
+        <f>AVERAGE(B1188:B1218)</f>
+        <v>132294.4193548387</v>
+      </c>
+    </row>
+    <row r="42" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A42" s="1">
         <v>43596</v>
       </c>
       <c r="B42">
         <v>76110</v>
       </c>
-    </row>
-    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E42" s="6">
+        <v>44774</v>
+      </c>
+      <c r="F42" s="13">
+        <f>AVERAGE(B1219:B1249)</f>
+        <v>116793.06451612903</v>
+      </c>
+    </row>
+    <row r="43" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A43" s="1">
         <v>43597</v>
       </c>
       <c r="B43">
         <v>73318</v>
       </c>
-    </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E43" s="6">
+        <v>44805</v>
+      </c>
+      <c r="F43" s="13">
+        <f>AVERAGE(B1250:B1279)</f>
+        <v>158684.4</v>
+      </c>
+    </row>
+    <row r="44" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A44" s="1">
         <v>43598</v>
       </c>
       <c r="B44">
         <v>68389</v>
       </c>
-    </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E44" s="6">
+        <v>44835</v>
+      </c>
+      <c r="F44" s="13">
+        <f>AVERAGE(B1280:B1310)</f>
+        <v>144202.22580645161</v>
+      </c>
+    </row>
+    <row r="45" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A45" s="1">
         <v>43599</v>
       </c>
       <c r="B45">
         <v>78385</v>
       </c>
-    </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E45" s="6">
+        <v>44866</v>
+      </c>
+      <c r="F45" s="13">
+        <f>AVERAGE(B1311:B1340)</f>
+        <v>127952.23333333334</v>
+      </c>
+    </row>
+    <row r="46" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A46" s="1">
         <v>43600</v>
       </c>
       <c r="B46">
         <v>76969</v>
       </c>
-    </row>
-    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E46" s="6">
+        <v>44896</v>
+      </c>
+      <c r="F46" s="13">
+        <f>AVERAGE(B1341:B1371)</f>
+        <v>56668.225806451614</v>
+      </c>
+    </row>
+    <row r="47" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A47" s="1">
         <v>43601</v>
       </c>
       <c r="B47">
         <v>75399</v>
       </c>
-    </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E47" s="6">
+        <v>44927</v>
+      </c>
+      <c r="F47" s="13">
+        <f>AVERAGE(B1372:B1402)</f>
+        <v>50691.806451612902</v>
+      </c>
+    </row>
+    <row r="48" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A48" s="1">
         <v>43602</v>
       </c>
       <c r="B48">
         <v>79158</v>
       </c>
-    </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E48" s="6">
+        <v>44958</v>
+      </c>
+      <c r="F48" s="13">
+        <f>AVERAGE(B1403:B1430)</f>
+        <v>79696.607142857145</v>
+      </c>
+    </row>
+    <row r="49" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A49" s="1">
         <v>43603</v>
       </c>
       <c r="B49">
         <v>79583</v>
       </c>
-    </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E49" s="6">
+        <v>44986</v>
+      </c>
+      <c r="F49" s="13">
+        <f>AVERAGE(B1431:B1461)</f>
+        <v>125339.83870967742</v>
+      </c>
+    </row>
+    <row r="50" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A50" s="1">
         <v>43604</v>
       </c>
       <c r="B50">
         <v>12749</v>
       </c>
-    </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E50" s="6">
+        <v>45017</v>
+      </c>
+      <c r="F50" s="13">
+        <f>AVERAGE(B1462:B1491)</f>
+        <v>136069.86666666667</v>
+      </c>
+    </row>
+    <row r="51" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A51" s="1">
         <v>43605</v>
       </c>
       <c r="B51">
         <v>72066</v>
       </c>
-    </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E51" s="6">
+        <v>45047</v>
+      </c>
+      <c r="F51" s="13">
+        <f>AVERAGE(B1492:B1522)</f>
+        <v>159770.77419354839</v>
+      </c>
+    </row>
+    <row r="52" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A52" s="1">
         <v>43606</v>
       </c>
       <c r="B52">
         <v>80599</v>
       </c>
-    </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E52" s="6">
+        <v>45078</v>
+      </c>
+      <c r="F52" s="13">
+        <f>AVERAGE(B1523:B1552)</f>
+        <v>164454.03333333333</v>
+      </c>
+    </row>
+    <row r="53" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A53" s="1">
         <v>43607</v>
       </c>
       <c r="B53">
         <v>80735</v>
       </c>
-    </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E53" s="6">
+        <v>45108</v>
+      </c>
+      <c r="F53" s="13">
+        <f>AVERAGE(B1553:B1583)</f>
+        <v>126838.70967741935</v>
+      </c>
+    </row>
+    <row r="54" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A54" s="1">
         <v>43608</v>
       </c>
       <c r="B54">
         <v>78504</v>
       </c>
-    </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E54" s="6">
+        <v>45139</v>
+      </c>
+      <c r="F54" s="13">
+        <f>AVERAGE(B1584:B1614)</f>
+        <v>126951.3870967742</v>
+      </c>
+    </row>
+    <row r="55" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A55" s="1">
         <v>43609</v>
       </c>
       <c r="B55">
         <v>77190</v>
       </c>
-    </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E55" s="6">
+        <v>45170</v>
+      </c>
+      <c r="F55" s="13">
+        <f>AVERAGE(B1615:B1644)</f>
+        <v>151635.76666666666</v>
+      </c>
+    </row>
+    <row r="56" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A56" s="1">
         <v>43610</v>
       </c>
       <c r="B56">
         <v>75791</v>
       </c>
-    </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E56" s="6">
+        <v>45200</v>
+      </c>
+      <c r="F56" s="13">
+        <f>AVERAGE(B1645:B1675)</f>
+        <v>170749.74193548388</v>
+      </c>
+    </row>
+    <row r="57" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A57" s="1">
         <v>43611</v>
       </c>
       <c r="B57">
         <v>74327</v>
       </c>
-    </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E57" s="6">
+        <v>45231</v>
+      </c>
+      <c r="F57" s="13">
+        <f>AVERAGE(B1676:B1705)</f>
+        <v>114464.56666666667</v>
+      </c>
+    </row>
+    <row r="58" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A58" s="1">
         <v>43612</v>
       </c>
       <c r="B58">
         <v>30670</v>
       </c>
-    </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E58" s="6">
+        <v>45261</v>
+      </c>
+      <c r="F58" s="13">
+        <f>AVERAGE(B1706:B1736)</f>
+        <v>67885.516129032258</v>
+      </c>
+    </row>
+    <row r="59" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A59" s="1">
         <v>43613</v>
       </c>
       <c r="B59">
         <v>83654</v>
       </c>
-    </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
+      <c r="E59" s="12"/>
+    </row>
+    <row r="60" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A60" s="1">
         <v>43614</v>
       </c>
@@ -971,7 +1426,7 @@
         <v>83496</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="61" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A61" s="1">
         <v>43615</v>
       </c>
@@ -979,7 +1434,7 @@
         <v>73814</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="62" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A62" s="1">
         <v>43616</v>
       </c>
@@ -987,7 +1442,7 @@
         <v>83765</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="63" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A63" s="1">
         <v>43617</v>
       </c>
@@ -995,7 +1450,7 @@
         <v>79878</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
+    <row r="64" spans="1:6" x14ac:dyDescent="0.3">
       <c r="A64" s="1">
         <v>43618</v>
       </c>
@@ -14382,5 +14837,6 @@
   </sheetData>
   <phoneticPr fontId="2" type="noConversion"/>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>